--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Supplier:</t>
   </si>
@@ -113,23 +113,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>S3005</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> steel cabinet with slinding steel door 3-layer adjustable shelves with lock powder coating finish size: (880h x 880w x 400d)mm color: cream
-</t>
-  </si>
-  <si>
-    <t>S3006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Table with drawers
-</t>
-  </si>
-  <si>
     <t>page 1 of 1</t>
   </si>
   <si>
@@ -191,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -238,12 +221,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -514,9 +491,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -529,12 +503,78 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -550,71 +590,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,21 +618,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1094,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,10 +1084,10 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1121,16 +1095,16 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="37"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1138,16 +1112,16 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="37"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
@@ -1155,59 +1129,59 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1220,10 +1194,10 @@
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1234,47 +1208,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>25</v>
-      </c>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="15">
-        <v>11000</v>
-      </c>
-      <c r="G17" s="15">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>27</v>
-      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15">
-        <v>5000</v>
-      </c>
-      <c r="G18" s="15">
-        <v>5000</v>
-      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -1360,8 +1310,8 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1369,8 +1319,8 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1378,8 +1328,8 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1531,160 +1481,161 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="45"/>
+      <c r="C47" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="36"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="48">
-        <f>SUM(G17:G47)</f>
-        <v>49000</v>
-      </c>
+      <c r="A48" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="39"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="49"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="A51" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:8" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="52"/>
+      <c r="E54" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="55"/>
+      <c r="A55" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="28"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E56" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
+      <c r="E56" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="E58" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
+      <c r="E58" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E59" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
+      <c r="E59" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="A60" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="A62" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="A63" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="44">
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:E15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C18:D18"/>
@@ -1701,22 +1652,18 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait"/>
@@ -1744,36 +1691,36 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
@@ -1781,57 +1728,57 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1844,10 +1791,10 @@
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1861,8 +1808,8 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="18"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -1924,8 +1871,8 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="4"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1933,8 +1880,8 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="4"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1942,8 +1889,8 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="4"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1952,7 +1899,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
       <c r="C27" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="4"/>
@@ -1962,10 +1909,10 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="57"/>
+      <c r="C28" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="32"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1973,10 +1920,10 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="57"/>
+      <c r="C29" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="32"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1984,10 +1931,10 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="57"/>
+      <c r="C30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="32"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1995,8 +1942,8 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="4"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -2085,8 +2032,8 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -2094,8 +2041,8 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="4"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -2103,8 +2050,8 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="4"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -2112,8 +2059,8 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="59"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="4"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -2121,8 +2068,8 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -2130,8 +2077,8 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -2139,141 +2086,119 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="64"/>
+      <c r="C47" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="58"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="67"/>
+      <c r="A48" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="67"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" spans="1:7" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="A51" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:7" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="52"/>
+      <c r="E54" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="55"/>
+      <c r="A55" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="28"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
+      <c r="E56" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="A60" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="35">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="A60:D62"/>
-    <mergeCell ref="E60:G62"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:G52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
@@ -2287,6 +2212,28 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A60:D62"/>
+    <mergeCell ref="E60:G62"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:G52"/>
+    <mergeCell ref="E54:F54"/>
   </mergeCells>
   <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait"/>

--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -1,53 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="12300"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="For End-User" sheetId="1" r:id="rId1"/>
-    <sheet name="For initial approval" sheetId="2" r:id="rId2"/>
+    <sheet name="For End-User" sheetId="1" r:id="rId4"/>
+    <sheet name="For initial approval" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'For End-User'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'For initial approval'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Supplier:</t>
   </si>
   <si>
-    <t>New A.G. Stylist Furniture</t>
+    <t>Cover and Pages Corporation</t>
   </si>
   <si>
     <t>PO No.</t>
   </si>
   <si>
-    <t>2021-06-00127</t>
+    <t>2021-07-00141</t>
   </si>
   <si>
     <t>Address:</t>
   </si>
   <si>
-    <t>132 Aurora Blvd., San Juan City</t>
+    <t xml:space="preserve">2763 Silang Street, Sta. Ana, Manila
+ </t>
   </si>
   <si>
     <t>DATE:</t>
   </si>
   <si>
-    <t>June 29, 2021</t>
+    <t>July 23, 2021</t>
   </si>
   <si>
     <t>Tel No.:</t>
@@ -59,30 +55,120 @@
     <t>Fax No.:</t>
   </si>
   <si>
-    <t>Shopping</t>
+    <t>Small Value Procurement</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Cambria"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <u val="none"/>
       </rPr>
       <t xml:space="preserve">Gentlemen: </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Cambria"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <u val="none"/>
       </rPr>
-      <t>Please furnish this office the following articles subject to the terms and conditions contained herein:</t>
+      <t xml:space="preserve">Please furnish this office the following articles subject to the terms and conditions contained herein:</t>
     </r>
   </si>
   <si>
+    <t>Place of Delivery: DILG IV-A CALABARZON, Andenson Bldg1. National Highway , Brgy. Parian, Calamba City, Laguna</t>
+  </si>
+  <si>
+    <t>Delivery  Terms</t>
+  </si>
+  <si>
+    <t>10 working days after receipt of PO</t>
+  </si>
+  <si>
+    <t>Terms of Payment:</t>
+  </si>
+  <si>
+    <t>as per agreement</t>
+  </si>
+  <si>
+    <t>Item No.</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Description/s</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>S2529</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Training Kit
+Training Manual and ECO BAG (KATYA with Design and LOGO)* Size: 210 mm x 148.5 mm  (A5)* Stock: Cover Foldcote #15* Inside: Book # 70* Color: Full* Finish: Glueing/Gathering* Process: Offset</t>
+  </si>
+  <si>
+    <t>315,368.00</t>
+  </si>
+  <si>
+    <t>page 1 of 1</t>
+  </si>
+  <si>
+    <t>(Total Amount in Words)   Three Hundred Ten Five Thousand Three Hundred Sixty Eight pesos only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for every day of delay shall be imposed.</t>
+  </si>
+  <si>
+    <t>Very Truly Yours:</t>
+  </si>
+  <si>
+    <t>Conforme:</t>
+  </si>
+  <si>
+    <t>Approving Authority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
+  </si>
+  <si>
+    <t>FUNDS PROVIDED</t>
+  </si>
+  <si>
+    <t>AMOUNT:</t>
+  </si>
+  <si>
+    <t>AGNES S. SANGEL</t>
+  </si>
+  <si>
+    <t>Regional Accountant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Place of Delivery: </t>
   </si>
   <si>
@@ -92,54 +178,6 @@
     <t>Terms:</t>
   </si>
   <si>
-    <t>Terms of Payment:</t>
-  </si>
-  <si>
-    <t>Item No.</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Description/s</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>page 1 of 1</t>
-  </si>
-  <si>
-    <t>(Total Amount in Words)   Forty Nine Thousand  pesos only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for every day of delay shall be imposed.</t>
-  </si>
-  <si>
-    <t>Very Truly Yours:</t>
-  </si>
-  <si>
-    <t>Conforme:</t>
-  </si>
-  <si>
-    <t>Approving Authority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
-    <t>FUNDS PROVIDED</t>
-  </si>
-  <si>
-    <t>AMOUNT:</t>
-  </si>
-  <si>
     <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
   </si>
   <si>
@@ -153,85 +191,87 @@
   </si>
   <si>
     <t>TOTAL AMOUNT IN WORDS</t>
-  </si>
-  <si>
-    <t>AGNES S. SANGEL</t>
-  </si>
-  <si>
-    <t>Regional Accountant</t>
-  </si>
-  <si>
-    <t>ARIEL O. IGLESIA</t>
-  </si>
-  <si>
-    <t>Regional Director</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -239,89 +279,78 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -330,310 +359,282 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="72">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -649,7 +650,7 @@
     <xdr:ext cx="847725" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -661,10 +662,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -682,7 +680,7 @@
     <xdr:ext cx="3667125" cy="457200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 20"/>
+        <xdr:cNvPr id="2" name="Picture 20" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -694,10 +692,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -715,7 +710,7 @@
     <xdr:ext cx="2190750" cy="819150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 22"/>
+        <xdr:cNvPr id="3" name="Picture 22" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -727,10 +722,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -753,7 +745,7 @@
     <xdr:ext cx="847725" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -765,10 +757,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -822,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,7 +846,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1065,29 +1054,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:H63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="true" style="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="true" style="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="true" style="23"/>
+    <col min="4" max="4" width="4" customWidth="true" style="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="true" style="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="true" style="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="true" style="1"/>
     <col min="8" max="8" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1095,16 +1095,16 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1112,238 +1112,252 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="8" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="8" t="s">
+      <c r="G13" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="71"/>
+    </row>
+    <row r="15" spans="1:8" customHeight="1" ht="15.75">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customHeight="1" ht="15.75">
       <c r="A16" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="C16" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="52"/>
       <c r="E16" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customHeight="1" ht="63">
+      <c r="A17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="4">
+        <v>1264</v>
+      </c>
+      <c r="F17" s="15">
+        <v>249.5</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customHeight="1" ht="15">
       <c r="A18" s="15"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="4"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="15"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="4"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="15"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="4"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="4"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="15"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="4"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="4"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="4"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="4"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="15"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="4"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="4"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="4"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="15"/>
       <c r="B32" s="3"/>
       <c r="C32" s="21"/>
@@ -1352,7 +1366,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="15"/>
       <c r="B33" s="3"/>
       <c r="C33" s="21"/>
@@ -1361,7 +1375,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="15"/>
       <c r="B34" s="3"/>
       <c r="C34" s="21"/>
@@ -1370,7 +1384,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="15"/>
       <c r="B35" s="3"/>
       <c r="C35" s="21"/>
@@ -1379,7 +1393,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="15"/>
       <c r="B36" s="3"/>
       <c r="C36" s="21"/>
@@ -1388,7 +1402,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="15"/>
       <c r="B37" s="3"/>
       <c r="C37" s="21"/>
@@ -1397,7 +1411,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="15"/>
       <c r="B38" s="3"/>
       <c r="C38" s="21"/>
@@ -1406,7 +1420,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="15"/>
       <c r="B39" s="3"/>
       <c r="C39" s="21"/>
@@ -1415,7 +1429,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="15"/>
       <c r="B40" s="3"/>
       <c r="C40" s="21"/>
@@ -1424,202 +1438,204 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="4"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="4"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="4"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="36"/>
+      <c r="C47" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="37"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="39"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="40"/>
-    </row>
-    <row r="50" spans="1:8" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-    </row>
-    <row r="53" spans="1:8" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="28"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="41"/>
+    </row>
+    <row r="50" spans="1:8" customHeight="1" ht="8.45">
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+    </row>
+    <row r="53" spans="1:8" customHeight="1" ht="7.15"/>
+    <row r="54" spans="1:8">
+      <c r="E54" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="44"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="29"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E56" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
+      <c r="E56" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="E58" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E59" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E58" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="E59" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
       <c r="D62" s="25"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="44">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A63:D63"/>
@@ -1636,6 +1652,8 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:E15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C18:D18"/>
@@ -1665,156 +1683,172 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
   </mergeCells>
-  <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.5511811023622" bottom="0.35433070866142" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="80" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:H62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="true" style="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="true" style="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="true" style="1"/>
+    <col min="4" max="4" width="4" customWidth="true" style="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="true" style="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="true" style="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="true" style="1"/>
     <col min="8" max="8" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="8" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+    <row r="15" spans="1:8" customHeight="1" ht="15.75">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" customHeight="1" ht="15.75">
       <c r="A16" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="C16" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="52"/>
       <c r="E16" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="18"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="15"/>
       <c r="B18" s="3"/>
       <c r="C18" s="19"/>
@@ -1823,7 +1857,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="15"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19"/>
@@ -1832,7 +1866,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="15"/>
       <c r="B20" s="3"/>
       <c r="C20" s="19"/>
@@ -1841,7 +1875,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="3"/>
       <c r="C21" s="19"/>
@@ -1850,7 +1884,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="15"/>
       <c r="B22" s="3"/>
       <c r="C22" s="19"/>
@@ -1859,7 +1893,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="3"/>
       <c r="C23" s="19"/>
@@ -1868,87 +1902,87 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="4"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="4"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="15"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="4"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="30"/>
+      <c r="C27" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="31"/>
       <c r="E27" s="4"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="32"/>
+      <c r="C28" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="33"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="32"/>
+      <c r="C29" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="33"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="32"/>
+      <c r="C30" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="33"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="4"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="15"/>
       <c r="B32" s="3"/>
       <c r="C32" s="19"/>
@@ -1957,7 +1991,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="15"/>
       <c r="B33" s="3"/>
       <c r="C33" s="19"/>
@@ -1966,7 +2000,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="15"/>
       <c r="B34" s="3"/>
       <c r="C34" s="19"/>
@@ -1975,7 +2009,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="15"/>
       <c r="B35" s="3"/>
       <c r="C35" s="19"/>
@@ -1984,7 +2018,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="15"/>
       <c r="B36" s="3"/>
       <c r="C36" s="19"/>
@@ -1993,7 +2027,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="15"/>
       <c r="B37" s="3"/>
       <c r="C37" s="19"/>
@@ -2002,7 +2036,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="15"/>
       <c r="B38" s="3"/>
       <c r="C38" s="19"/>
@@ -2011,7 +2045,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="15"/>
       <c r="B39" s="3"/>
       <c r="C39" s="19"/>
@@ -2020,7 +2054,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="15"/>
       <c r="B40" s="3"/>
       <c r="C40" s="19"/>
@@ -2029,176 +2063,176 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="4"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="66"/>
       <c r="E43" s="4"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="4"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="66"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="58"/>
+      <c r="C47" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="61"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="61"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="61"/>
-    </row>
-    <row r="50" spans="1:7" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-    </row>
-    <row r="53" spans="1:7" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="28"/>
+    <row r="48" spans="1:8">
+      <c r="A48" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="64"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="64"/>
+    </row>
+    <row r="50" spans="1:8" customHeight="1" ht="8.45">
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+    </row>
+    <row r="53" spans="1:8" customHeight="1" ht="7.15"/>
+    <row r="54" spans="1:8">
+      <c r="E54" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="44"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="29"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
+      <c r="E56" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" s="6"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+    <row r="60" spans="1:8">
+      <c r="A60" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="35">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
@@ -2235,8 +2269,17 @@
     <mergeCell ref="A51:G52"/>
     <mergeCell ref="E54:F54"/>
   </mergeCells>
-  <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.5511811023622" bottom="0.35433070866142" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="80" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -19,31 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Supplier:</t>
   </si>
   <si>
-    <t>Cover and Pages Corporation</t>
+    <t>Alprops Management  Inc. ( Montevista Hot Spring and Conference Resort)</t>
   </si>
   <si>
     <t>PO No.</t>
   </si>
   <si>
-    <t>2021-07-00141</t>
+    <t>2022-03-0005</t>
   </si>
   <si>
     <t>Address:</t>
   </si>
   <si>
-    <t xml:space="preserve">2763 Silang Street, Sta. Ana, Manila
- </t>
+    <t>Barangay Pansol Calamba Laguna</t>
   </si>
   <si>
     <t>DATE:</t>
   </si>
   <si>
-    <t>July 23, 2021</t>
+    <t>April 08, 2022</t>
   </si>
   <si>
     <t>Tel No.:</t>
@@ -53,9 +52,6 @@
   </si>
   <si>
     <t>Fax No.:</t>
-  </si>
-  <si>
-    <t>Small Value Procurement</t>
   </si>
   <si>
     <r>
@@ -117,23 +113,40 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>S2529</t>
+    <t>S3607</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>Specialty Paper, A4
+TEST7</t>
+  </si>
+  <si>
+    <t>S3634</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>Training Kit
-Training Manual and ECO BAG (KATYA with Design and LOGO)* Size: 210 mm x 148.5 mm  (A5)* Stock: Cover Foldcote #15* Inside: Book # 70* Color: Full* Finish: Glueing/Gathering* Process: Offset</t>
-  </si>
-  <si>
-    <t>315,368.00</t>
+    <t>Flasher
+TEST7</t>
+  </si>
+  <si>
+    <t>S3642</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>Parking Fee
+TEST7</t>
   </si>
   <si>
     <t>page 1 of 1</t>
   </si>
   <si>
-    <t>(Total Amount in Words)   Three Hundred Ten Five Thousand Three Hundred Sixty Eight pesos only</t>
+    <t>(Total Amount in Words)    pesos only</t>
   </si>
   <si>
     <t xml:space="preserve">                   In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for every day of delay shall be imposed.</t>
@@ -1135,15 +1148,13 @@
       <c r="B10" s="47"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="48" t="s">
-        <v>11</v>
-      </c>
+      <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -1154,17 +1165,17 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
       <c r="F13" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="70" t="s">
         <v>14</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1183,71 +1194,95 @@
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
       <c r="F15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" customHeight="1" ht="15.75">
       <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="52" t="s">
         <v>19</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>20</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="13" t="s">
+    </row>
+    <row r="17" spans="1:8" customHeight="1" ht="30">
+      <c r="A17" s="28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" customHeight="1" ht="63">
-      <c r="A17" s="28" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="30" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>26</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="4">
-        <v>1264</v>
+        <v>1</v>
       </c>
       <c r="F17" s="15">
-        <v>249.5</v>
-      </c>
-      <c r="G17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customHeight="1" ht="30">
+      <c r="A18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" customHeight="1" ht="15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="30"/>
+      <c r="C18" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="31"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="15"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="30"/>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="15">
+        <v>400</v>
+      </c>
+      <c r="G18" s="15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" customHeight="1" ht="30">
+      <c r="A19" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>31</v>
+      </c>
       <c r="D19" s="31"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="15">
+        <v>150</v>
+      </c>
+      <c r="G19" s="15">
+        <v>450</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="15"/>
@@ -1496,7 +1531,7 @@
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
       <c r="C47" s="36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="6"/>
@@ -1505,15 +1540,15 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
-      <c r="G48" s="40" t="s">
-        <v>27</v>
+      <c r="G48" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1531,7 +1566,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -1552,51 +1587,51 @@
     <row r="53" spans="1:8" customHeight="1" ht="7.15"/>
     <row r="54" spans="1:8">
       <c r="E54" s="44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F54" s="44"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B55" s="29"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:8">
       <c r="E56" s="29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C58" s="6"/>
       <c r="E58" s="45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F58" s="45"/>
       <c r="G58" s="45"/>
     </row>
     <row r="59" spans="1:8">
       <c r="E59" s="46" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F59" s="46"/>
       <c r="G59" s="46"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="55" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
       <c r="D60" s="57"/>
       <c r="E60" s="34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
@@ -1613,7 +1648,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -1624,7 +1659,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="58" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B63" s="58"/>
       <c r="C63" s="58"/>
@@ -1774,7 +1809,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -1785,14 +1820,14 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="50" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
       <c r="F13" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1803,7 +1838,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
       <c r="F14" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1814,29 +1849,29 @@
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
       <c r="F15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" customHeight="1" ht="15.75">
       <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="52" t="s">
         <v>19</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>20</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1933,7 +1968,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
       <c r="C27" s="30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="4"/>
@@ -1944,7 +1979,7 @@
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
       <c r="C28" s="32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="4"/>
@@ -1955,7 +1990,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
       <c r="C29" s="32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="4"/>
@@ -1966,7 +2001,7 @@
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
       <c r="C30" s="32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="4"/>
@@ -2121,7 +2156,7 @@
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
       <c r="C47" s="60" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D47" s="61"/>
       <c r="E47" s="6"/>
@@ -2130,7 +2165,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="62" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48" s="62"/>
       <c r="C48" s="63"/>
@@ -2154,7 +2189,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -2175,39 +2210,39 @@
     <row r="53" spans="1:8" customHeight="1" ht="7.15"/>
     <row r="54" spans="1:8">
       <c r="E54" s="44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F54" s="44"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B55" s="29"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:8">
       <c r="E56" s="29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
